--- a/xlsx/美国自由女神像_intext.xlsx
+++ b/xlsx/美国自由女神像_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="770">
   <si>
     <t>美国自由女神像</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国自由女神像</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国自由女神像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B3%B6</t>
   </si>
   <si>
-    <t>自由島</t>
+    <t>自由岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8F%B2%E8%B9%9F%E5%90%8D%E9%8C%84</t>
   </si>
   <si>
-    <t>國家史蹟名錄</t>
+    <t>国家史蹟名录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
   </si>
   <si>
-    <t>國家紀念區</t>
+    <t>国家纪念区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%96%87%C2%B7%E6%9F%AF%E7%AB%8B%E8%8A%9D</t>
@@ -101,21 +101,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82%E5%9C%B0%E6%A8%99</t>
   </si>
   <si>
-    <t>紐約市地標</t>
+    <t>纽约市地标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%B8%AF</t>
   </si>
   <si>
-    <t>紐約港</t>
+    <t>纽约港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>美國獨立</t>
+    <t>美国独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BB%8D</t>
   </si>
   <si>
-    <t>北軍</t>
+    <t>北军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E6%99%AE%E7%AB%8B%E8%8C%B2</t>
   </si>
   <si>
-    <t>約瑟夫·普立茲</t>
+    <t>约瑟夫·普立兹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ticker_tape_parade</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E9%83%A8</t>
   </si>
   <si>
-    <t>美國戰爭部</t>
+    <t>美国战争部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E8%A2%AD%E5%87%BB%E4%BA%8B%E4%BB%B6</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E9%8E%AE</t>
   </si>
   <si>
-    <t>凡爾賽鎮</t>
+    <t>凡尔赛镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91%E4%B8%89%E4%B8%96</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>古羅馬宗教</t>
+    <t>古罗马宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%C2%B7%E6%88%B4%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>傑佛遜·戴維斯</t>
+    <t>杰佛逊·戴维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BB%81%C2%B7%E7%B6%AD%E5%A5%A7%E8%90%8A-%E5%8B%92-%E6%9D%9C%E5%85%8B</t>
   </si>
   <si>
-    <t>歐仁·維奧萊-勒-杜克</t>
+    <t>欧仁·维奥莱-勒-杜克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%88%E8%BA%AB%E5%8F%82%E8%AE%AE%E5%91%98</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%AD%8C%E5%8A%87%E9%99%A2</t>
   </si>
   <si>
-    <t>巴黎歌劇院</t>
+    <t>巴黎歌剧院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%B0%94%C2%B7%E5%8F%A4%E8%AF%BA</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>紐約州州長</t>
+    <t>纽约州州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%97%8F%E7%BE%A4%E8%BF%AB%E5%AE%B3</t>
   </si>
   <si>
-    <t>少數族群迫害</t>
+    <t>少数族群迫害</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%9B%9B%E8%A1%8C%E8%AF%97</t>
@@ -761,13 +758,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%A6%E6%B1%BA</t>
   </si>
   <si>
-    <t>否決</t>
+    <t>否决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%B3%E6%89%8B%E6%9E%B6</t>
   </si>
   <si>
-    <t>腳手架</t>
+    <t>脚手架</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E5%B7%A5%E7%A8%8B%E5%85%B5%E5%9B%A2</t>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E8%8E%AB%E8%98%AD</t>
   </si>
   <si>
-    <t>愛德華·莫蘭</t>
+    <t>爱德华·莫兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E5%A4%A7%E9%81%93</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%8F%83%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>聯邦參議員</t>
+    <t>联邦参议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7M%C2%B7%E5%9F%83%E7%93%A6%E8%8C%A8</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9E%A2%E7%81%AB%E8%9F%B2</t>
   </si>
   <si>
-    <t>螢火蟲</t>
+    <t>萤火虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B4%E9%87%91</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
@@ -1031,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>埃利斯島</t>
+    <t>埃利斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
@@ -1133,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%AC%E9%B9%B5%E5%8C%96%E7%89%A9%E7%87%88</t>
   </si>
   <si>
-    <t>金屬鹵化物燈</t>
+    <t>金属卤化物灯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%A2%AF</t>
@@ -1163,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E7%9C%BE%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>聯邦眾議員</t>
+    <t>联邦众议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A5%E5%B7%B4%E9%A9%AC</t>
@@ -1253,13 +1250,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AD%E5%9F%8E%E5%A4%A7%E9%81%93</t>
   </si>
   <si>
-    <t>賭城大道</t>
+    <t>赌城大道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84-%E7%B4%90%E7%B4%84%E9%85%92%E5%BA%97</t>
   </si>
   <si>
-    <t>紐約-紐約酒店</t>
+    <t>纽约-纽约酒店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B9%85%E5%B2%9B_(%E5%B7%B4%E9%BB%8E)</t>
@@ -1289,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E6%B3%95%E5%9C%98</t>
   </si>
   <si>
-    <t>市法團</t>
+    <t>市法团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E5%9B%9B%E4%BA%8B%E4%BB%B6</t>
@@ -1331,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B11%E7%BE%8E%E5%85%83%E7%A1%AC%E5%B9%A3</t>
   </si>
   <si>
-    <t>總統1美元硬幣</t>
+    <t>总统1美元硬币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD50%E5%B7%9E25%E7%BE%8E%E5%88%86%E7%BA%AA%E5%BF%B5%E5%B8%81</t>
@@ -1355,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%87%AA%E7%94%B1%E4%BA%BA</t>
   </si>
   <si>
-    <t>紐約自由人</t>
+    <t>纽约自由人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%AE%E7%90%83</t>
@@ -1367,13 +1364,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家冰球聯盟</t>
+    <t>国家冰球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%81%8A%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>紐約遊騎兵</t>
+    <t>纽约游骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E7%90%83%E8%A1%A3</t>
@@ -1385,19 +1382,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全美大學體育協會</t>
+    <t>全美大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%A0%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>博根縣</t>
+    <t>博根县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%9B%A7%E7%91%9F%E7%A6%8F</t>
   </si>
   <si>
-    <t>東盧瑟福</t>
+    <t>东卢瑟福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -1457,13 +1454,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E8%8A%AC%E5%88%A9</t>
   </si>
   <si>
-    <t>傑克·芬利</t>
+    <t>杰克·芬利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B9%BB%E5%B0%8F%E8%AA%AA%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>科幻小說百科全書</t>
+    <t>科幻小说百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%92%9F</t>
@@ -1487,9 +1484,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
-    <t>曼哈頓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%89%BA%E6%9C%AF%E6%9A%A8%E6%96%87%E5%AD%A6%E5%AD%A6%E4%BC%9A</t>
   </si>
   <si>
@@ -1505,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%87%AA%E7%84%B6%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國自然史博物館</t>
+    <t>美国自然史博物馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rose_Center_for_Earth_and_Space</t>
@@ -1517,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>亞洲協會</t>
+    <t>亚洲协会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Asian_American_Arts_Centre</t>
@@ -1643,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E8%A5%BF%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>格雷西大廈</t>
+    <t>格雷西大厦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gracie_Mansion</t>
@@ -1661,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BE%85%E9%96%80%C2%B7%E5%8F%A4%E6%A0%B9%E6%BC%A2%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>所羅門·古根漢美術館</t>
+    <t>所罗门·古根汉美术馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hamilton_Grange_National_Memorial</t>
@@ -1691,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%95%8F%E8%99%9F%E6%B5%B7%E3%80%81%E7%A9%BA%E6%9A%A8%E5%A4%AA%E7%A9%BA%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>無畏號海、空暨太空博物館</t>
+    <t>无畏号海、空暨太空博物馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Irish_American_Baseball_Hall_of_Fame</t>
@@ -1745,13 +1739,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>大都會藝術博物館</t>
+    <t>大都会艺术博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%9C%96%E6%9B%B8%E9%A4%A8%E5%8F%8A%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>摩根圖書館及博物館</t>
+    <t>摩根图书馆及博物馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Morris%E2%80%93Jumel_Mansion</t>
@@ -1769,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%87%91%E8%9E%8D%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國金融博物館</t>
+    <t>美国金融博物馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Museum_of_Arts_and_Design</t>
@@ -1787,7 +1781,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%8F%AF%E4%BA%BA%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國華人博物館</t>
+    <t>美国华人博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E6%BC%AB%E8%89%BA%E6%9C%AF%E5%8D%9A%E7%89%A9%E9%A6%86</t>
@@ -1811,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>現代藝術博物館</t>
+    <t>现代艺术博物馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Museum_of_Motherhood</t>
@@ -1829,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%8D%9A%E7%89%A9%E9%A4%A8_(%E7%B4%90%E7%B4%84)</t>
   </si>
   <si>
-    <t>性博物館 (紐約)</t>
+    <t>性博物馆 (纽约)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Museum_of_Sex</t>
@@ -1841,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%9F%8E%E5%B8%82%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>紐約城市博物館</t>
+    <t>纽约城市博物馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Museum_of_the_City_of_New_York</t>
@@ -1853,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AD%B8%E9%99%A2%E5%8D%9A%E7%89%A9%E9%A4%A8%E5%92%8C%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>國家學院博物館和學校</t>
+    <t>国家学院博物馆和学校</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Jazz_Museum_in_Harlem</t>
@@ -1877,7 +1871,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%95%B6%E4%BB%A3%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>新當代藝術博物館</t>
+    <t>新当代艺术博物馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/New_York_City_Fire_Museum</t>
@@ -1907,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E4%BA%A4%E9%80%9A%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>紐約交通博物館</t>
+    <t>纽约交通博物馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/New_York_Transit_Museum</t>
@@ -2015,9 +2009,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2</t>
   </si>
   <si>
-    <t>世界遺產</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%90%A8%E7%BB%B4%E5%BE%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
   </si>
   <si>
@@ -2033,7 +2024,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%9C%8D%E5%9F%BA%E4%BA%9E%E9%81%BA%E5%9D%80</t>
   </si>
   <si>
-    <t>卡霍基亞遺址</t>
+    <t>卡霍基亚遗址</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/La_Fortaleza</t>
@@ -2075,31 +2066,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>黃石國家公園</t>
+    <t>黄石国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%9B%A7%E6%81%A9/%E5%BC%97%E8%98%AD%E6%A0%BC%E7%88%BE-%E8%81%96%E4%BC%8A%E8%90%8A%E4%BA%9E%E6%96%AF/%E5%86%B0%E5%B7%9D%E7%81%A3/%E5%A1%94%E7%90%B4%E5%B8%8C%E5%B0%BC-%E9%98%BF%E7%88%BE%E5%A1%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>克盧恩/弗蘭格爾-聖伊萊亞斯/冰川灣/塔琴希尼-阿爾塞克</t>
+    <t>克卢恩/弗兰格尔-圣伊莱亚斯/冰川湾/塔琴希尼-阿尔塞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大峽谷國家公園</t>
+    <t>大峡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%BC%E6%BE%A4%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大沼澤地國家公園</t>
+    <t>大沼泽地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>紅木國家公園</t>
+    <t>红木国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%8A%B8%E6%B4%9E%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -2111,31 +2102,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>奧林匹克國家公園</t>
+    <t>奥林匹克国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%85%99%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大煙山國家公園</t>
+    <t>大烟山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8B%9D%E7%BE%8E%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>優勝美地國家公園</t>
+    <t>优胜美地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%89%B9%E9%A0%93-%E5%86%B0%E5%B7%9D%E5%9C%8B%E9%9A%9B%E5%92%8C%E5%B9%B3%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>沃特頓-冰川國際和平公園</t>
+    <t>沃特顿-冰川国际和平公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>夏威夷火山國家公園</t>
+    <t>夏威夷火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%96%AF%E5%B7%B4%E5%BE%B7%E6%B4%9E%E7%AA%9F%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -2147,7 +2138,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%B8%95%E5%93%88%E7%91%99%E8%8E%AB%E5%A4%B8%E5%9F%BA%E4%BA%9E%E5%9C%8B%E5%AE%B6%E6%B5%B7%E6%B4%8B%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>帕帕哈瑙莫夸基亞國家海洋保護區</t>
+    <t>帕帕哈瑙莫夸基亚国家海洋保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -2165,19 +2156,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>美國國旗</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>美國國徽</t>
+    <t>美国国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%AD%E6%B5%B7%E9%9B%95</t>
   </si>
   <si>
-    <t>白頭海雕</t>
+    <t>白头海雕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
@@ -2213,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%A2%9D%E6%97%97_(%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%AD%8C)</t>
   </si>
   <si>
-    <t>星條旗 (美國國歌)</t>
+    <t>星条旗 (美国国歌)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%E8%A5%BF</t>
@@ -2225,13 +2213,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%BA%97%E7%9A%84%E7%BE%8E%E5%88%A9%E5%A0%85</t>
   </si>
   <si>
-    <t>美麗的美利堅</t>
+    <t>美丽的美利坚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%A2%9D%E6%97%97%E6%B0%B8%E4%B8%8D%E8%90%BD</t>
   </si>
   <si>
-    <t>星條旗永不落</t>
+    <t>星条旗永不落</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%91%E7%BB%9F%E5%B8%85%E8%87%B4%E6%95%AC</t>
@@ -2267,7 +2255,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9C%8B%E6%88%B0%E6%AD%8C</t>
   </si>
   <si>
-    <t>共和國戰歌</t>
+    <t>共和国战歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E5%9F%BA%E6%AD%8C</t>
@@ -2303,19 +2291,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>金門大橋</t>
+    <t>金门大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>國家廣場</t>
+    <t>国家广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -3142,7 +3130,7 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>124</v>
@@ -3168,10 +3156,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -3197,10 +3185,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -3226,10 +3214,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>46</v>
@@ -3255,10 +3243,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3284,10 +3272,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -3313,10 +3301,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3342,10 +3330,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -3371,10 +3359,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3400,10 +3388,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -3429,10 +3417,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -3458,10 +3446,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -3487,10 +3475,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -3516,10 +3504,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -3545,10 +3533,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3574,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -3603,10 +3591,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3632,10 +3620,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -3661,10 +3649,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3690,10 +3678,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>6</v>
@@ -3719,10 +3707,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -3748,10 +3736,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3777,10 +3765,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>5</v>
@@ -3806,10 +3794,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3835,10 +3823,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3864,10 +3852,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3922,10 +3910,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3951,10 +3939,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -3980,10 +3968,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4009,10 +3997,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4038,10 +4026,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -4067,10 +4055,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4096,10 +4084,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4125,10 +4113,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -4154,10 +4142,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4183,10 +4171,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4212,10 +4200,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4241,10 +4229,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -4270,10 +4258,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4299,10 +4287,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4328,10 +4316,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -4357,10 +4345,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4415,10 +4403,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4444,10 +4432,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4473,10 +4461,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4502,10 +4490,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4531,10 +4519,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4560,10 +4548,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -4589,10 +4577,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4618,10 +4606,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4647,10 +4635,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -4676,10 +4664,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4705,10 +4693,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4734,10 +4722,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4763,10 +4751,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>106</v>
@@ -4792,10 +4780,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4821,10 +4809,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4850,10 +4838,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4879,10 +4867,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4908,10 +4896,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4937,10 +4925,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4966,10 +4954,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4995,10 +4983,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5024,10 +5012,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>23</v>
@@ -5053,10 +5041,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5082,10 +5070,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5111,10 +5099,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5140,10 +5128,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5169,10 +5157,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5198,10 +5186,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5227,10 +5215,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5256,10 +5244,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5285,10 +5273,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5314,10 +5302,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5343,10 +5331,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5372,10 +5360,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5401,10 +5389,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5430,10 +5418,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5459,10 +5447,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5488,10 +5476,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5517,10 +5505,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5546,10 +5534,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5575,10 +5563,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5604,10 +5592,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5633,10 +5621,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5662,10 +5650,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5691,10 +5679,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5720,10 +5708,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5749,10 +5737,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5778,10 +5766,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5807,10 +5795,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>13</v>
@@ -5836,10 +5824,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5865,10 +5853,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5894,10 +5882,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5923,10 +5911,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5952,10 +5940,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6010,10 +5998,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -6039,10 +6027,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6068,10 +6056,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>6</v>
@@ -6097,10 +6085,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6126,10 +6114,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -6155,10 +6143,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6184,10 +6172,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6213,10 +6201,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>4</v>
@@ -6242,10 +6230,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6271,10 +6259,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6300,10 +6288,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6329,10 +6317,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6358,10 +6346,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6387,10 +6375,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6416,10 +6404,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
@@ -6445,10 +6433,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6474,10 +6462,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6503,10 +6491,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6532,10 +6520,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6561,10 +6549,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6590,10 +6578,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6619,10 +6607,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6648,10 +6636,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6677,10 +6665,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6706,10 +6694,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6735,10 +6723,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6764,10 +6752,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6793,10 +6781,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6822,10 +6810,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6851,10 +6839,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6880,10 +6868,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6909,10 +6897,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6938,10 +6926,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6967,10 +6955,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6996,10 +6984,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7025,10 +7013,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7054,10 +7042,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7083,10 +7071,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7112,10 +7100,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7141,10 +7129,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7170,10 +7158,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>5</v>
@@ -7199,10 +7187,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7228,10 +7216,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7257,10 +7245,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7286,10 +7274,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7315,10 +7303,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7344,10 +7332,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7402,10 +7390,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>316</v>
+      </c>
+      <c r="F163" t="s">
         <v>317</v>
-      </c>
-      <c r="F163" t="s">
-        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7431,10 +7419,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>318</v>
+      </c>
+      <c r="F164" t="s">
         <v>319</v>
-      </c>
-      <c r="F164" t="s">
-        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7460,10 +7448,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>320</v>
+      </c>
+      <c r="F165" t="s">
         <v>321</v>
-      </c>
-      <c r="F165" t="s">
-        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7489,10 +7477,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>322</v>
+      </c>
+      <c r="F166" t="s">
         <v>323</v>
-      </c>
-      <c r="F166" t="s">
-        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7518,10 +7506,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>324</v>
+      </c>
+      <c r="F167" t="s">
         <v>325</v>
-      </c>
-      <c r="F167" t="s">
-        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7547,10 +7535,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>326</v>
+      </c>
+      <c r="F168" t="s">
         <v>327</v>
-      </c>
-      <c r="F168" t="s">
-        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7576,10 +7564,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>328</v>
+      </c>
+      <c r="F169" t="s">
         <v>329</v>
-      </c>
-      <c r="F169" t="s">
-        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7605,10 +7593,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>330</v>
+      </c>
+      <c r="F170" t="s">
         <v>331</v>
-      </c>
-      <c r="F170" t="s">
-        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7634,10 +7622,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>332</v>
+      </c>
+      <c r="F171" t="s">
         <v>333</v>
-      </c>
-      <c r="F171" t="s">
-        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7663,10 +7651,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>334</v>
+      </c>
+      <c r="F172" t="s">
         <v>335</v>
-      </c>
-      <c r="F172" t="s">
-        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7692,10 +7680,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>336</v>
+      </c>
+      <c r="F173" t="s">
         <v>337</v>
-      </c>
-      <c r="F173" t="s">
-        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>10</v>
@@ -7721,10 +7709,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>338</v>
+      </c>
+      <c r="F174" t="s">
         <v>339</v>
-      </c>
-      <c r="F174" t="s">
-        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7750,10 +7738,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>340</v>
+      </c>
+      <c r="F175" t="s">
         <v>341</v>
-      </c>
-      <c r="F175" t="s">
-        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7779,10 +7767,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>342</v>
+      </c>
+      <c r="F176" t="s">
         <v>343</v>
-      </c>
-      <c r="F176" t="s">
-        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -7808,10 +7796,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7837,10 +7825,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7866,10 +7854,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7895,10 +7883,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7924,10 +7912,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7953,10 +7941,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7982,10 +7970,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8011,10 +7999,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8040,10 +8028,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" t="s">
         <v>361</v>
-      </c>
-      <c r="F185" t="s">
-        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8069,10 +8057,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" t="s">
         <v>363</v>
-      </c>
-      <c r="F186" t="s">
-        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8098,10 +8086,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
         <v>365</v>
-      </c>
-      <c r="F187" t="s">
-        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8127,10 +8115,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8156,10 +8144,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8185,10 +8173,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8214,10 +8202,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>5</v>
@@ -8243,10 +8231,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8272,10 +8260,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8301,10 +8289,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" t="s">
         <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8330,10 +8318,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>380</v>
+      </c>
+      <c r="F195" t="s">
         <v>381</v>
-      </c>
-      <c r="F195" t="s">
-        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8359,10 +8347,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" t="s">
         <v>383</v>
-      </c>
-      <c r="F196" t="s">
-        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8388,10 +8376,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
         <v>385</v>
-      </c>
-      <c r="F197" t="s">
-        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8417,10 +8405,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
         <v>387</v>
-      </c>
-      <c r="F198" t="s">
-        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8446,10 +8434,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>388</v>
+      </c>
+      <c r="F199" t="s">
         <v>389</v>
-      </c>
-      <c r="F199" t="s">
-        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8475,10 +8463,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200" t="s">
         <v>391</v>
-      </c>
-      <c r="F200" t="s">
-        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>5</v>
@@ -8504,10 +8492,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>392</v>
+      </c>
+      <c r="F201" t="s">
         <v>393</v>
-      </c>
-      <c r="F201" t="s">
-        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8533,10 +8521,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>394</v>
+      </c>
+      <c r="F202" t="s">
         <v>395</v>
-      </c>
-      <c r="F202" t="s">
-        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8562,10 +8550,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>396</v>
+      </c>
+      <c r="F203" t="s">
         <v>397</v>
-      </c>
-      <c r="F203" t="s">
-        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>4</v>
@@ -8591,10 +8579,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" t="s">
         <v>399</v>
-      </c>
-      <c r="F204" t="s">
-        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8620,10 +8608,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" t="s">
         <v>401</v>
-      </c>
-      <c r="F205" t="s">
-        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8649,10 +8637,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" t="s">
         <v>403</v>
-      </c>
-      <c r="F206" t="s">
-        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8678,10 +8666,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207" t="s">
         <v>405</v>
-      </c>
-      <c r="F207" t="s">
-        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8707,10 +8695,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>406</v>
+      </c>
+      <c r="F208" t="s">
         <v>407</v>
-      </c>
-      <c r="F208" t="s">
-        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8765,10 +8753,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>408</v>
+      </c>
+      <c r="F210" t="s">
         <v>409</v>
-      </c>
-      <c r="F210" t="s">
-        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8794,10 +8782,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>410</v>
+      </c>
+      <c r="F211" t="s">
         <v>411</v>
-      </c>
-      <c r="F211" t="s">
-        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8823,10 +8811,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>412</v>
+      </c>
+      <c r="F212" t="s">
         <v>413</v>
-      </c>
-      <c r="F212" t="s">
-        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8852,10 +8840,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>408</v>
+      </c>
+      <c r="F213" t="s">
         <v>409</v>
-      </c>
-      <c r="F213" t="s">
-        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8881,10 +8869,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>414</v>
+      </c>
+      <c r="F214" t="s">
         <v>415</v>
-      </c>
-      <c r="F214" t="s">
-        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8910,10 +8898,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>416</v>
+      </c>
+      <c r="F215" t="s">
         <v>417</v>
-      </c>
-      <c r="F215" t="s">
-        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8939,10 +8927,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>418</v>
+      </c>
+      <c r="F216" t="s">
         <v>419</v>
-      </c>
-      <c r="F216" t="s">
-        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8968,10 +8956,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>420</v>
+      </c>
+      <c r="F217" t="s">
         <v>421</v>
-      </c>
-      <c r="F217" t="s">
-        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8997,10 +8985,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>422</v>
+      </c>
+      <c r="F218" t="s">
         <v>423</v>
-      </c>
-      <c r="F218" t="s">
-        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>26</v>
@@ -9026,10 +9014,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>424</v>
+      </c>
+      <c r="F219" t="s">
         <v>425</v>
-      </c>
-      <c r="F219" t="s">
-        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9055,10 +9043,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>426</v>
+      </c>
+      <c r="F220" t="s">
         <v>427</v>
-      </c>
-      <c r="F220" t="s">
-        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9084,10 +9072,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>428</v>
+      </c>
+      <c r="F221" t="s">
         <v>429</v>
-      </c>
-      <c r="F221" t="s">
-        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9113,10 +9101,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>430</v>
+      </c>
+      <c r="F222" t="s">
         <v>431</v>
-      </c>
-      <c r="F222" t="s">
-        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9142,10 +9130,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>432</v>
+      </c>
+      <c r="F223" t="s">
         <v>433</v>
-      </c>
-      <c r="F223" t="s">
-        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9171,10 +9159,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>434</v>
+      </c>
+      <c r="F224" t="s">
         <v>435</v>
-      </c>
-      <c r="F224" t="s">
-        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9200,10 +9188,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>436</v>
+      </c>
+      <c r="F225" t="s">
         <v>437</v>
-      </c>
-      <c r="F225" t="s">
-        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9229,10 +9217,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>438</v>
+      </c>
+      <c r="F226" t="s">
         <v>439</v>
-      </c>
-      <c r="F226" t="s">
-        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9258,10 +9246,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>440</v>
+      </c>
+      <c r="F227" t="s">
         <v>441</v>
-      </c>
-      <c r="F227" t="s">
-        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9287,10 +9275,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>442</v>
+      </c>
+      <c r="F228" t="s">
         <v>443</v>
-      </c>
-      <c r="F228" t="s">
-        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9316,10 +9304,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>444</v>
+      </c>
+      <c r="F229" t="s">
         <v>445</v>
-      </c>
-      <c r="F229" t="s">
-        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9345,10 +9333,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>446</v>
+      </c>
+      <c r="F230" t="s">
         <v>447</v>
-      </c>
-      <c r="F230" t="s">
-        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9374,10 +9362,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>448</v>
+      </c>
+      <c r="F231" t="s">
         <v>449</v>
-      </c>
-      <c r="F231" t="s">
-        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9403,10 +9391,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>450</v>
+      </c>
+      <c r="F232" t="s">
         <v>451</v>
-      </c>
-      <c r="F232" t="s">
-        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9432,10 +9420,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>452</v>
+      </c>
+      <c r="F233" t="s">
         <v>453</v>
-      </c>
-      <c r="F233" t="s">
-        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9461,10 +9449,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>454</v>
+      </c>
+      <c r="F234" t="s">
         <v>455</v>
-      </c>
-      <c r="F234" t="s">
-        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9490,10 +9478,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>456</v>
+      </c>
+      <c r="F235" t="s">
         <v>457</v>
-      </c>
-      <c r="F235" t="s">
-        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9519,10 +9507,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>458</v>
+      </c>
+      <c r="F236" t="s">
         <v>459</v>
-      </c>
-      <c r="F236" t="s">
-        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9548,10 +9536,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>460</v>
+      </c>
+      <c r="F237" t="s">
         <v>461</v>
-      </c>
-      <c r="F237" t="s">
-        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9577,10 +9565,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>462</v>
+      </c>
+      <c r="F238" t="s">
         <v>463</v>
-      </c>
-      <c r="F238" t="s">
-        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9606,10 +9594,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>464</v>
+      </c>
+      <c r="F239" t="s">
         <v>465</v>
-      </c>
-      <c r="F239" t="s">
-        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9635,10 +9623,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>466</v>
+      </c>
+      <c r="F240" t="s">
         <v>467</v>
-      </c>
-      <c r="F240" t="s">
-        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9664,10 +9652,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>468</v>
+      </c>
+      <c r="F241" t="s">
         <v>469</v>
-      </c>
-      <c r="F241" t="s">
-        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9693,10 +9681,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>470</v>
+      </c>
+      <c r="F242" t="s">
         <v>471</v>
-      </c>
-      <c r="F242" t="s">
-        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9722,10 +9710,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>472</v>
+      </c>
+      <c r="F243" t="s">
         <v>473</v>
-      </c>
-      <c r="F243" t="s">
-        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9751,10 +9739,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>474</v>
+      </c>
+      <c r="F244" t="s">
         <v>475</v>
-      </c>
-      <c r="F244" t="s">
-        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9780,10 +9768,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>476</v>
+      </c>
+      <c r="F245" t="s">
         <v>477</v>
-      </c>
-      <c r="F245" t="s">
-        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9809,10 +9797,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>478</v>
+      </c>
+      <c r="F246" t="s">
         <v>479</v>
-      </c>
-      <c r="F246" t="s">
-        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9838,10 +9826,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>480</v>
+      </c>
+      <c r="F247" t="s">
         <v>481</v>
-      </c>
-      <c r="F247" t="s">
-        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9867,10 +9855,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>482</v>
+      </c>
+      <c r="F248" t="s">
         <v>483</v>
-      </c>
-      <c r="F248" t="s">
-        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9896,10 +9884,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>484</v>
+      </c>
+      <c r="F249" t="s">
         <v>485</v>
-      </c>
-      <c r="F249" t="s">
-        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9925,10 +9913,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>486</v>
+      </c>
+      <c r="F250" t="s">
         <v>487</v>
-      </c>
-      <c r="F250" t="s">
-        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>12</v>
@@ -9954,10 +9942,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>8</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9983,10 +9971,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10012,10 +10000,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10041,10 +10029,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10070,10 +10058,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10099,10 +10087,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10128,10 +10116,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10157,10 +10145,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10186,10 +10174,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10215,10 +10203,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10244,10 +10232,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10273,10 +10261,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10302,10 +10290,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10331,10 +10319,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10360,10 +10348,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10389,10 +10377,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10418,10 +10406,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10447,10 +10435,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10476,10 +10464,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>336</v>
+      </c>
+      <c r="F269" t="s">
         <v>337</v>
-      </c>
-      <c r="F269" t="s">
-        <v>338</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10505,10 +10493,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10534,10 +10522,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10563,10 +10551,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10592,10 +10580,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10621,10 +10609,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10650,10 +10638,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10679,10 +10667,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10708,10 +10696,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F277" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10737,10 +10725,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10766,10 +10754,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F279" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10795,10 +10783,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F280" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10824,10 +10812,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10853,10 +10841,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10882,10 +10870,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10911,10 +10899,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F284" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10940,10 +10928,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F285" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10969,10 +10957,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F286" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10998,10 +10986,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F287" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11027,10 +11015,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11056,10 +11044,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11085,10 +11073,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11114,10 +11102,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F291" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11143,10 +11131,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F292" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11172,10 +11160,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F293" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11201,10 +11189,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F294" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11230,10 +11218,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F295" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11259,10 +11247,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F296" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11288,10 +11276,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F297" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11317,10 +11305,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F298" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11346,10 +11334,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F299" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11375,10 +11363,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F300" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11404,10 +11392,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F301" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11433,10 +11421,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F302" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11462,10 +11450,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F303" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11491,10 +11479,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F304" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11520,10 +11508,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F305" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11549,10 +11537,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F306" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11578,10 +11566,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F307" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11607,10 +11595,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F308" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11636,10 +11624,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F309" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11665,10 +11653,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F310" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11694,10 +11682,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F311" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11723,10 +11711,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F312" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11752,10 +11740,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F313" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11781,10 +11769,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F314" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11810,10 +11798,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F315" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11839,10 +11827,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F316" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11868,10 +11856,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F317" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11897,10 +11885,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F318" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11926,10 +11914,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F319" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11955,10 +11943,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F320" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11984,10 +11972,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F321" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12013,10 +12001,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F322" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12042,10 +12030,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F323" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12071,10 +12059,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F324" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12100,10 +12088,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F325" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12129,10 +12117,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F326" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12158,10 +12146,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F327" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12187,10 +12175,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F328" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12216,10 +12204,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F329" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12245,10 +12233,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F330" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12274,10 +12262,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12303,10 +12291,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F332" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12332,10 +12320,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12361,10 +12349,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F334" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12390,10 +12378,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F335" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12419,10 +12407,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F336" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12448,10 +12436,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F337" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12477,10 +12465,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F338" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12506,10 +12494,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F339" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12535,10 +12523,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F340" t="s">
-        <v>666</v>
+        <v>18</v>
       </c>
       <c r="G340" t="n">
         <v>5</v>
@@ -12564,10 +12552,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F341" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12593,10 +12581,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F342" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12622,10 +12610,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F343" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12651,10 +12639,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F344" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12680,10 +12668,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F345" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12709,10 +12697,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F346" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12738,10 +12726,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F347" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12767,10 +12755,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F348" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12796,10 +12784,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F349" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12825,10 +12813,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F350" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12854,10 +12842,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F351" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12883,10 +12871,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F352" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12912,10 +12900,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F353" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12941,10 +12929,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F354" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12970,10 +12958,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F355" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12999,10 +12987,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F356" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13028,10 +13016,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F357" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13057,10 +13045,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F358" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13086,10 +13074,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F359" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13115,10 +13103,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F360" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13144,10 +13132,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F361" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13173,10 +13161,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F362" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13202,10 +13190,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F363" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13231,10 +13219,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F364" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13260,10 +13248,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F365" t="s">
-        <v>716</v>
+        <v>341</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13289,10 +13277,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F366" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13318,10 +13306,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F367" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13347,10 +13335,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F368" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13376,10 +13364,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F369" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13405,10 +13393,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F370" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13434,10 +13422,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F371" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13463,10 +13451,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F372" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13492,10 +13480,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F373" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -13521,10 +13509,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F374" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13550,10 +13538,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F375" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13579,10 +13567,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F376" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13608,10 +13596,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F377" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13637,10 +13625,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F378" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13666,10 +13654,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F379" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13695,10 +13683,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F380" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13724,10 +13712,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F381" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13753,10 +13741,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F382" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13782,10 +13770,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F383" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13811,10 +13799,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F384" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13840,10 +13828,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F385" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13869,10 +13857,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F386" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13898,10 +13886,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F387" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13927,10 +13915,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>482</v>
+      </c>
+      <c r="F388" t="s">
         <v>483</v>
-      </c>
-      <c r="F388" t="s">
-        <v>484</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13956,10 +13944,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>310</v>
+      </c>
+      <c r="F389" t="s">
         <v>311</v>
-      </c>
-      <c r="F389" t="s">
-        <v>312</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -13985,10 +13973,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F390" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14014,10 +14002,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F391" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14043,10 +14031,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F392" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G392" t="n">
         <v>3</v>
@@ -14072,10 +14060,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F393" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14101,10 +14089,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F394" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14130,10 +14118,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F395" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G395" t="n">
         <v>9</v>
@@ -14159,10 +14147,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F396" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
